--- a/medicine/Pharmacie/Acide_aminé_protéinogène/Acide_aminé_protéinogène.xlsx
+++ b/medicine/Pharmacie/Acide_aminé_protéinogène/Acide_aminé_protéinogène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_amin%C3%A9_prot%C3%A9inog%C3%A8ne</t>
+          <t>Acide_aminé_protéinogène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un acide aminé protéinogène est un acide aminé incorporé dans les protéines lors de la traduction de l'ARN messager par les ribosomes[1]. Il existe en tout 22 acides aminés protéinogènes, ce qualificatif étant forgé à partir de racines grecques signifiant précisément « qui donne naissance aux protéines ». Parmi ceux-ci, 20 acides aminés, dits acides aminés standards, sont codés directement par un codon de l'ADN nucléaire. Deux autres acides aminés protéinogènes sont codés indirectement par des codons-stop qui sont recodés en codons d'acides aminés en présence de séquences d'insertion particulières, appelées élément SECIS pour la sélénocystéine et élément PYLIS pour la pyrrolysine. La pyrrolysine n'est présente que dans les protéines de certaines archées méthanogènes, de sorte que les eucaryotes et les bactéries n'utilisent que 21 acides aminés protéinogènes.
-Bien qu'elle présente une chaîne latérale identique à celle de la méthionine, la N-formylméthionine est parfois considérée comme un 23e acide aminé protéinogène car, chez les procaryotes ainsi que dans les mitochondries et les chloroplastes des eucaryotes, c'est elle qui est incorporée par les ribosomes à la place de la méthionine au début des chaînes polypeptidiques lors de la traduction de l'ARN messager ; ce résidu est souvent éliminé par la suite par modification post-traductionnelle de la protéine néoformée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un acide aminé protéinogène est un acide aminé incorporé dans les protéines lors de la traduction de l'ARN messager par les ribosomes. Il existe en tout 22 acides aminés protéinogènes, ce qualificatif étant forgé à partir de racines grecques signifiant précisément « qui donne naissance aux protéines ». Parmi ceux-ci, 20 acides aminés, dits acides aminés standards, sont codés directement par un codon de l'ADN nucléaire. Deux autres acides aminés protéinogènes sont codés indirectement par des codons-stop qui sont recodés en codons d'acides aminés en présence de séquences d'insertion particulières, appelées élément SECIS pour la sélénocystéine et élément PYLIS pour la pyrrolysine. La pyrrolysine n'est présente que dans les protéines de certaines archées méthanogènes, de sorte que les eucaryotes et les bactéries n'utilisent que 21 acides aminés protéinogènes.
+Bien qu'elle présente une chaîne latérale identique à celle de la méthionine, la N-formylméthionine est parfois considérée comme un 23e acide aminé protéinogène car, chez les procaryotes ainsi que dans les mitochondries et les chloroplastes des eucaryotes, c'est elle qui est incorporée par les ribosomes à la place de la méthionine au début des chaînes polypeptidiques lors de la traduction de l'ARN messager ; ce résidu est souvent éliminé par la suite par modification post-traductionnelle de la protéine néoformée.
 Le corps humain est capable de synthétiser 12 des 21 acides aminés protéinogènes qu'il utilise, tandis que neuf d'entre eux, dits acides aminés essentiels, doivent lui être apportés par l'alimentation : histidine, isoleucine, leucine, lysine, méthionine, phénylalanine, thréonine, tryptophane et valine. 
 En revanche, les acides aminés non protéinogènes peuvent être incorporés dans les protéines au cours de modifications post-traductionnelles, comme le γ-carboxyglutamate ou l'hydroxyproline, voire être totalement absents des protéines, comme l'acide γ-aminobutyrique ou la DOPA.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_amin%C3%A9_prot%C3%A9inog%C3%A8ne</t>
+          <t>Acide_aminé_protéinogène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Structure des acides aminés protéinogènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La planche ci-dessous présente la structure non ionisée des 22 acides aminés protéinogènes ; en solution aqueuse à pH physiologique, les fonctions carboxyle –COOH et amine –NH2 sont ionisées en carboxylate –COO− et ammonium –NH3+, les espèces chimiques correspondantes sont des zwitterions.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_amin%C3%A9_prot%C3%A9inog%C3%A8ne</t>
+          <t>Acide_aminé_protéinogène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Propriétés chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau ci-dessous résume les principales propriétés chimiques des acides aminés protéinogènes et de leur chaîne latérale. Les valeurs proposées pour le point isoélectrique et les constantes d'acidité sont celles de l'université de Calgary[3], en Alberta.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous résume les principales propriétés chimiques des acides aminés protéinogènes et de leur chaîne latérale. Les valeurs proposées pour le point isoélectrique et les constantes d'acidité sont celles de l'université de Calgary, en Alberta.
 La valeur du pKR ici donnée correspond à l'acide aminé libre. Cette valeur varie sensiblement pour les résidus d'acides aminés présents dans les protéines, comme l'indique le tableau ci-dessous :
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_amin%C3%A9_prot%C3%A9inog%C3%A8ne</t>
+          <t>Acide_aminé_protéinogène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Expression génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau ci-dessous présente les codons d'ARN messager correspondant à chacun des 22 acides aminés protéinogènes. Les valeurs relatives à l'abondance relative des acides aminés dans les protéines varient légèrement suivant les espèces et les bases de données utilisées. Elles sont données ici à titre indicatif.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acide_amin%C3%A9_prot%C3%A9inog%C3%A8ne</t>
+          <t>Acide_aminé_protéinogène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Fonctions biochimiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau ci-dessous propose une brève description des 22 acides aminés classés en fonction des codes et abréviations spécifiés par le comité de nomenclature commun IUPAC - IUBMB :
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acide_amin%C3%A9_prot%C3%A9inog%C3%A8ne</t>
+          <t>Acide_aminé_protéinogène</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,11 +659,13 @@
           <t>Origine évolutive</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des bactéries sont capables de synthétiser les vingt acides aminés protéinogènes, mais elles le font suivant deux types de méthodes. Une première série d'acides aminés « primaires » est créée à partir de composés inorganiques. Les acides aminés « secondaires » sont formés à partir des « primaires » qui leur servent d'éléments précurseurs[8].
-Les conversions connues entre acides aminés sont les suivantes[9] :
-Les acides aminés primaires sont moins d'une dizaine. Ce sont eux qui se forment spontanément dans les expériences de chimie prébiotiques, ou que l'on retrouve dans les météorites carbonées[8]. Ces éléments suggèrent qu'ils sont les premiers apparus, et que les premières protéines n'étaient formées que de ceux-ci[8]. Le reste de la série ne relève alors pas de la chimie pré-biotique, mais sont le produit des métabolismes primitifs.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des bactéries sont capables de synthétiser les vingt acides aminés protéinogènes, mais elles le font suivant deux types de méthodes. Une première série d'acides aminés « primaires » est créée à partir de composés inorganiques. Les acides aminés « secondaires » sont formés à partir des « primaires » qui leur servent d'éléments précurseurs.
+Les conversions connues entre acides aminés sont les suivantes :
+Les acides aminés primaires sont moins d'une dizaine. Ce sont eux qui se forment spontanément dans les expériences de chimie prébiotiques, ou que l'on retrouve dans les météorites carbonées. Ces éléments suggèrent qu'ils sont les premiers apparus, et que les premières protéines n'étaient formées que de ceux-ci. Le reste de la série ne relève alors pas de la chimie pré-biotique, mais sont le produit des métabolismes primitifs.
 </t>
         </is>
       </c>
